--- a/data/long_dif/P24_7-Urba-long_dif.xlsx
+++ b/data/long_dif/P24_7-Urba-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +627,52 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>10,6%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>9,11%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12,51%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>11,98%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10,11%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,09; 14,17</t>
+          <t>7,85; 13,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,08; 11,88</t>
+          <t>7,12; 12,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,22; 17,79</t>
+          <t>7,83; 15,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,48; 17,06</t>
+          <t>11,73; 18,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,38; 14,88</t>
+          <t>11,36; 17,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,01; 13,73</t>
+          <t>6,57; 12,2</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10,47; 14,78</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>10,11; 14,03</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>8,13; 12,51</t>
         </is>
       </c>
     </row>
@@ -672,37 +733,52 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>75,96%</t>
+          <t>76,17%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>78,59%</t>
+          <t>78,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>70,29%</t>
+          <t>66,55%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>72,32%</t>
+          <t>70,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>72,99%</t>
+          <t>71,85%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>75,31%</t>
+          <t>67,19%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>72,97%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>75,08%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>66,89%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>69,91; 80,09</t>
+          <t>69,83; 80,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>74,02; 82,2</t>
+          <t>74,28; 82,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>65,92; 74,52</t>
+          <t>60,35; 73,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>68,87; 75,96</t>
+          <t>65,98; 74,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>69,68; 76,22</t>
+          <t>68,15; 75,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>72,5; 77,77</t>
+          <t>62,52; 71,72</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>69,72; 75,99</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>72,15; 77,5</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>63,08; 71,04</t>
         </is>
       </c>
     </row>
@@ -748,37 +839,52 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>13,23%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,55%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>23,7%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>14,52%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>12,94%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>23,0%</t>
         </is>
       </c>
     </row>
@@ -791,74 +897,100 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,95; 19,65</t>
+          <t>9,79; 20,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,62; 17,44</t>
+          <t>9,18; 16,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,26; 18,67</t>
+          <t>17,3; 27,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,79; 16,15</t>
+          <t>12,77; 19,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,01; 17,76</t>
+          <t>11,34; 16,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,88; 15,44</t>
+          <t>19,42; 28,05</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>12,3; 17,83</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>11,08; 15,29</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>19,71; 26,52</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1003,104 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,28; 15,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,99; 16,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,53; 19,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,24; 12,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,54; 15,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,77; 13,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>74,27%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>71,06%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>73,74%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>76,73%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>74,0%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>73,88%</t>
+          <t>10,14%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>12,74%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10,95%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12,91%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1113,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>65,1; 79,5</t>
+          <t>7,5; 15,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>65,53; 76,24</t>
+          <t>9,03; 15,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>68,33; 78,36</t>
+          <t>11,08; 21,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>72,34; 80,44</t>
+          <t>10,98; 20,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>68,45; 77,35</t>
+          <t>7,31; 12,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>70,43; 77,01</t>
+          <t>7,27; 13,09</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>10,07; 16,22</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>8,98; 13,2</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>10,27; 16,71</t>
         </is>
       </c>
     </row>
@@ -980,37 +1161,52 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15,33%</t>
+          <t>74,92%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>71,73%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>68,62%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>73,27%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>76,52%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
+          <t>63,1%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>74,1%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>74,11%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>65,86%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1219,100 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,64; 25,36</t>
+          <t>68,02; 80,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,59; 22,24</t>
+          <t>66,35; 76,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,31; 16,08</t>
+          <t>62,5; 74,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,81; 17,36</t>
+          <t>67,46; 78,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,2; 19,89</t>
+          <t>72,04; 80,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,53; 18,31</t>
+          <t>57,91; 68,58</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>69,73; 77,75</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>70,88; 77,67</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>61,55; 69,8</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12,82%</t>
+          <t>15,98%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>26,76%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>13,16%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>14,93%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>21,23%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1325,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,97; 12,96</t>
+          <t>10,44; 22,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,86; 21,23</t>
+          <t>12,25; 21,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,19; 23,51</t>
+          <t>11,75; 20,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,55; 19,55</t>
+          <t>9,01; 15,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,04; 15,91</t>
+          <t>10,71; 17,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,75; 17,85</t>
+          <t>21,52; 31,61</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>10,51; 17,44</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>12,3; 17,95</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>17,88; 24,83</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1373,52 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>83,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>75,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>72,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>69,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>77,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>72,59%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1431,104 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>73,43; 89,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>66,06; 83,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>63,9; 80,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>61,39; 78,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>71,38; 83,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>66,76; 78,44</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>17,45%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>12,31%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>10,56%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>12,96%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>10,15%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1541,100 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,86; 20,68</t>
+          <t>2,06; 12,45</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,19; 19,07</t>
+          <t>7,56; 20,03</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,06; 19,65</t>
+          <t>3,15; 17,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>11,65; 25,83</t>
+          <t>9,43; 24,58</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8,0; 16,97</t>
+          <t>7,87; 20,73</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>10,4; 19,5</t>
+          <t>6,6; 20,11</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>6,64; 15,81</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>8,89; 17,66</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>6,0; 15,6</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>82,8%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>75,23%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>66,34%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>12,35%</t>
+          <t>71,29%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>70,39%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>68,55%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>77,13%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>72,83%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>67,44%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1647,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>8,05; 12,47</t>
+          <t>72,51; 89,54</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>8,93; 13,05</t>
+          <t>66,6; 82,56</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>12,16; 16,98</t>
+          <t>49,93; 79,94</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>10,61; 14,44</t>
+          <t>61,2; 79,28</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>10,57; 13,88</t>
+          <t>61,84; 77,99</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>10,32; 12,95</t>
+          <t>57,81; 77,82</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>70,0; 83,25</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>66,71; 78,28</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>57,62; 75,96</t>
         </is>
       </c>
     </row>
@@ -1368,37 +1695,52 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>76,17%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>75,2%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>71,87%</t>
+          <t>25,66%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>73,69%</t>
+          <t>13,15%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>73,97%</t>
+          <t>16,46%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>74,43%</t>
+          <t>19,14%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>12,31%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>14,21%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>22,41%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +1753,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>71,55; 79,57</t>
+          <t>5,78; 20,04</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>71,77; 77,97</t>
+          <t>6,8; 18,93</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>68,56; 74,54</t>
+          <t>12,9; 42,43</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>71,18; 76,4</t>
+          <t>7,74; 21,25</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>71,28; 76,41</t>
+          <t>10,4; 23,62</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>72,5; 76,61</t>
+          <t>12,12; 28,97</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>8,49; 17,83</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>10,19; 19,52</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>15,43; 32,66</t>
         </is>
       </c>
     </row>
@@ -1444,37 +1801,52 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>13,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>13,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,45 +1859,495 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>11,01; 18,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>11,63; 17,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>11,86; 16,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>12,11; 16,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>12,08; 16,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>12,32; 15,72</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>10,1%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>10,92%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>12,61%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>14,55%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>12,44%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>9,87%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>12,37%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>11,69%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>11,21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>8,17; 12,64</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>9,24; 12,97</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>10,17; 15,72</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>12,4; 17,51</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>10,54; 14,4</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>8,21; 11,95</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>10,8; 14,06</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>10,45; 13,04</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>9,72; 12,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>76,48%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>75,46%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>67,36%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>71,43%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>73,46%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>65,78%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>73,91%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>74,44%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>66,55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>72,85; 80,04</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>72,71; 78,7</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>62,38; 71,67</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>68,14; 74,47</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>70,7; 75,75</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>62,28; 68,99</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>71,54; 76,19</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>72,54; 76,37</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>63,84; 69,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>13,42%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>13,63%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>20,03%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>14,01%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>14,1%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>24,35%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>13,72%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>13,87%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>22,24%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>10,67; 17,05</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>11,23; 16,24</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>16,5; 23,97</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>12,14; 16,25</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>12,31; 16,41</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>21,31; 27,53</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>12,05; 15,82</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>12,31; 15,64</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>19,99; 24,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
